--- a/output/fit_clients/fit_round_31.xlsx
+++ b/output/fit_clients/fit_round_31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>6243416073.411588</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003378008636500092</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
         <v>8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.508293904166049</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9349264984785964</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.508293904166049</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5367906416.053951</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004015825434126066</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.955376604887541</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9515801286625641</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-3.955376604887541</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4786198501.640088</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003378104075484681</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.145212973623043</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.012654991521783</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-6.145212973623043</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3248044813.167091</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004903227595322884</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.134723346924728</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8204670876033689</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.134723346924728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7192109685.739474</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002843356159856059</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.829333219018586</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8400187392246982</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.829333219018586</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8325690361.029907</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0012566524117188</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.398281048837593</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9748910450002418</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-4.398281048837593</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>5151558848.317954</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002718611924120134</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.337884938060149</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9694694922593505</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-4.337884938060149</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>4308671019.978391</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.003478888812858188</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>6.056090745205053</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9591952876517786</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-6.056090745205053</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3165820776.76553</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004048659644017498</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.363877289265992</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9464693174496033</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.363877289265992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4492986564.290733</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001173283393788778</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.959095723716302</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7618408322476706</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.959095723716302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>7281811297.187371</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001662963710983747</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.073302243446887</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.004395829653854</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.073302243446887</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4865551072.88465</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.004713657621650495</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.98232206241085</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.011505060828841</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.98232206241085</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7419578599.275583</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003134711199914468</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
         <v>7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.38384061782823</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8771013228087127</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.38384061782823</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5677105780.61437</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004841651441692307</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.07531672960567151</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.653575067993915</v>
-      </c>
-      <c r="M15" t="n">
-        <v>-0.266888445728053</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.653575067993915</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>8151018922.456986</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.005247516965036275</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.719146103887035</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9139460844213491</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.719146103887035</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5101818085.37347</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003183533768030581</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.348527043900131</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9705562256055108</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-4.348527043900131</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5288618265.623492</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0008750709814422918</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8.627473718765293</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.0077511516093</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-8.627473718765293</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3721289549.971237</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001630017462526742</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.9359209417726199</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.874815468269634</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.190785285120679</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.874815468269634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4844921117.75732</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.0009113289791543259</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.918225662660495</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8334720614779209</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.918225662660495</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5096635440.614477</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005895767501825641</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.179796775260088</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8294120063758657</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.179796775260088</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4628133825.585393</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004135340442586326</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5920901663484133</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5.189951122159436</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.9092174198178863</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-5.189951122159436</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>9001808633.635029</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.00176834249524772</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>10</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.9028780322254686</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.804009469352367</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.145878002640315</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.804009469352367</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5549115565.323457</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003791322752538436</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4.087996902326046</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.010673402472889</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-4.087996902326046</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5301082192.544097</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.004068200372775629</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>6</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.9420254675725785</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.710481915100989</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.248340721831698</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.710481915100989</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>3684344319.030977</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001154809124008245</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>8</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3.017316797272333</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.818280737568885</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-3.017316797272333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>5461269052.203869</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003127370828690172</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>8</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.209727892720049</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9155580902800455</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.209727892720049</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>6559853343.662726</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.003717957453736427</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.41977796438465</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8961246457457728</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.41977796438465</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5104784459.541612</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001495514932788505</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.07540381768202335</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4.534523868267727</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.1568633708960915</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-4.534523868267727</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>7642703723.603144</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.002713260411830491</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.05582156680382</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8719173487187861</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.05582156680382</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7772954680.124845</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002181508337416016</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.466267498933393</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9717483489020166</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.466267498933393</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4523922232.682056</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001390764247875722</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>6</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.1637801269391139</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.937229865243317</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.3457326718551343</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.937229865243317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7888890602.147227</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003122766620670653</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.7692144577891704</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4.07511806137203</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.025991935893861</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-4.07511806137203</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>5872181310.951768</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.005237780819097975</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5.233253990515618</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8240611397075186</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-5.233253990515618</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5056603055.550676</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.00204573735478419</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4.423218642580781</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9716417434948065</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-4.423218642580781</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5515258927.864814</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003361350700142668</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.646749395322308</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.023833384819197</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.646749395322308</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4108189561.120852</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004970208697630367</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
         <v>8</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.35902574092824</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.003448986186248</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.35902574092824</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3090944294.276938</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003679846063125022</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>6</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.56832297167531</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9208404797081784</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-3.56832297167531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>6182336456.338877</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002416069043153237</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.833622405079405</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>4.17553333429847</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.099952091254065</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-4.17553333429847</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>7318984171.736095</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.00451167481221613</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>6</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.840453558977291</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.996704190434665</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.840453558977291</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>7113260377.654592</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001389869833172565</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>4.002023628106079</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9404370446049758</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-4.002023628106079</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6159331319.284383</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004036395473569418</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.878819997576616</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.008585219595301</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-3.878819997576616</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5717920914.966595</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004431655866046814</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>6</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.769790610639274</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.292236640432999</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.769790610639274</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5092387210.63098</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001458740688033394</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>7</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.513130506491031</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9498047382454743</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-3.513130506491031</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4097619970.490268</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001250605882010211</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>7</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.2615443444251173</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.675785017232807</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.5399982704893524</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.675785017232807</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>9761344225.757738</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.005335472079542693</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>8</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6615618454397381</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.210798976650067</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8893216533552942</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.210798976650067</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8512092927.253706</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002184200057862056</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.898193358118637</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9268885300753249</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.898193358118637</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>8182148323.984813</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002610626117686381</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>6.236068927808096</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.001138818952621</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-6.236068927808096</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4229593757.531464</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004739921735691874</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>8</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.8940150859010108</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.317794109649229</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.152552346264799</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.317794109649229</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7982099542.729669</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003632681030551493</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.15904069442028</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.040077052058337</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.15904069442028</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4961882082.40328</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004725496877809932</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>7</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.460744538866613</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9630309073304443</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.460744538866613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>7294023437.461688</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001615571185833133</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>6</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.582771536626817</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8617033463255116</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.582771536626817</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>7205886385.453082</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002362456601376784</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>8</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.200726036943732</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.8969470254351987</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.200726036943732</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5900822802.370584</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.003947093821801913</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>9</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.933987823490691</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8191812688290319</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.933987823490691</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7409465072.890911</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003299148730334297</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>6</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.8195395717067665</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3.641230534811197</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.152184486203488</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-3.641230534811197</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5481269291.035908</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002322467323101514</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>5</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4.016745440500263</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9370682808340624</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-4.016745440500263</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8472919119.213581</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.002902511114397626</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>4</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.386788770456727</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8769832122570109</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-4.386788770456727</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5486830115.772145</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.00256049408369092</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>9</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.865858551871925</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7983265628551698</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.865858551871925</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7543013440.76851</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.002882532556442581</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>8</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.148002537777328</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8682827828978075</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.148002537777328</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>3680247237.332985</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.002722789156132377</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>6</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.528218281001018</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8506221495520065</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.528218281001018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6058841997.626533</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005049566539710259</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>8</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.857537461396404</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.948360187501349</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.857537461396404</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5989853461.411407</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003363856891162797</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>7</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.7121474985135441</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.974248822111668</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1.000486515077205</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.974248822111668</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7709277023.408441</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.00382982271830612</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
         <v>8</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3.147887408078224</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9074627166981348</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-3.147887408078224</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>5433993148.505585</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004237569307929973</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>4</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.388755515498207</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9295012820761296</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.388755515498207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>4729313026.450377</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.003608647412281542</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.1551896507428996</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>4.431626433657732</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.4204305826367483</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-4.431626433657732</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4290322339.674963</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002556851120182461</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>7</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.429271901471215</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8996467376882011</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.429271901471215</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>7306881824.253485</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.00363787957964743</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>8.763366460304738</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9639099892258481</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-8.763366460304738</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>6378764114.052785</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.003025153706029898</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.847793003030981</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7812451930500259</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.847793003030981</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6662254722.175827</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0008259195690723236</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>6</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.723018179773181</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9677269221994886</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.723018179773181</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6568912466.606367</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002946941956104674</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.902847176018851</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9377443003170967</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-5.902847176018851</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4312397215.795739</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003464153797377983</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>5.039259666342122</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8542105930836634</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-5.039259666342122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5625439359.895719</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001827109817731161</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>4</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>4.426205704867338</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.095075725757396</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-4.426205704867338</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6091341973.602633</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001039611130833688</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>5.067534019707347</v>
-      </c>
-      <c r="M73" t="n">
-        <v>1.002926623027789</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-5.067534019707347</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5634500592.95649</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004316418404810933</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>6</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.586297624054403</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8846412714930353</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.586297624054403</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6933567081.26776</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.004394440132909894</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>9</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.097076597546439</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8306819890670863</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.097076597546439</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6433067238.283249</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002421730341461708</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>7</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.482200566042871</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9330084036027613</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.482200566042871</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6354603855.497003</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005494049597260186</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>6.227654505968919</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.037337508824525</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-6.227654505968919</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5722191810.386829</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004747654443617369</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>5</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>4.017698076191103</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9537931235574548</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-4.017698076191103</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>5717524518.348406</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002124898691711942</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.352452477791283</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.980282613750608</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.352452477791283</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6154905617.780024</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002580146392190113</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>7</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.690197394033996</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9793124568154332</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.690197394033996</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6236162896.815328</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004711715716434053</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>6.114219161874805</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.02094880232756</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-6.114219161874805</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>5926719299.921895</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.00460769539052606</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5.165264198077762</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.969796267954023</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-5.165264198077762</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>7961071454.206859</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003551018121045114</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>11</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.673850736277921</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7828580293310662</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.673850736277921</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5836858895.816736</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004392166491106142</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3.158930211625671</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.948360187501349</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-3.158930211625671</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4971128747.975753</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002541139178329201</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>7</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3.333573963259358</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9273420232003468</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-3.333573963259358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8150041704.61557</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002198220675947508</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
         <v>9</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.2157379967178205</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.27759526810083</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.4104069971629982</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.27759526810083</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4598275193.789033</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001280798053248163</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>8</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764211</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.170756945099333</v>
-      </c>
-      <c r="M87" t="n">
-        <v>-0.508000508000762</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.170756945099333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8097336136.647302</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.00362847704393706</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
         <v>7</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6947797322744945</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>3.326367943747359</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.9522118138498601</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-3.326367943747359</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5425818018.579053</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003877633631065754</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>6</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.755669503060067</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9545658218632962</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.755669503060067</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>7568160907.007151</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003283500417382722</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>7</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>3.322420391976315</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9352653433509642</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-3.322420391976315</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>8033564537.452641</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004824259504748149</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>6.05531873980302</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8753001674468579</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-6.05531873980302</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4011746745.599404</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003770324895214333</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>7</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.466579192014053</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.0327515241889</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.466579192014053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5087134446.92413</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001884617650750883</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>7</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.410253675860031</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9262045872016077</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.410253675860031</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5048273155.457702</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001453705484476057</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>6.240793596248144</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.067388320347676</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-6.240793596248144</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7190082166.34991</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002672118176871195</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.915042490240807</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9359426650737176</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.915042490240807</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>6586321349.904815</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002780061813444913</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>10</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693103</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.919547453275337</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8950632748387919</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.919547453275337</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6568555076.823391</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004864302824060992</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4.122162159968711</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9177450746613135</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-4.122162159968711</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>5722657441.597078</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004562357885459892</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.797729092344215</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8885655609265971</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.797729092344215</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2487535188.294625</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004682142802249368</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>7</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>3.441604572890861</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.9112887352717268</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-3.441604572890861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4554626253.182546</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002985595756603614</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.677185311473803</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.11748347962491</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8891445746663148</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.11748347962491</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7886355896.369384</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001298158298601931</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>7</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5690976591104829</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.677662899649003</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8937688736093704</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.677662899649003</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_31.xlsx
+++ b/output/fit_clients/fit_round_31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>6243416073.411588</v>
+        <v>1596169672.154727</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003378008636500092</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+        <v>0.1007292560969653</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03188342029113291</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>798084777.1868249</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>537</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1726099600.785578</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1813952295720998</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0390050911965943</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>542</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5367906416.053951</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.004015825434126066</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+      <c r="J3" t="n">
+        <v>863049797.7743382</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4786198501.640088</v>
+        <v>4072807373.323079</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003378104075484681</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+        <v>0.15471670412175</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03291976800381841</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2036403705.8081</v>
       </c>
     </row>
     <row r="5">
@@ -567,19 +595,25 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3248044813.167091</v>
+        <v>2670050574.768414</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004903227595322884</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.09456940623463354</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04872930015773046</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1335025378.810376</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>500</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2340313559.21944</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0988324587283983</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.03582978054868274</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
-        <v>469</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7192109685.739474</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.002843356159856059</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
+      <c r="J6" t="n">
+        <v>1170156772.190765</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8325690361.029907</v>
+        <v>1973879961.47204</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0012566524117188</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+        <v>0.0636966562081004</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03387522735331822</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>986940044.2362005</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>5151558848.317954</v>
+        <v>3188295286.438139</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002718611924120134</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
+        <v>0.1816445661167571</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0273702035745692</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1594147719.779662</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>4308671019.978391</v>
+        <v>1763523801.25792</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003478888812858188</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
+        <v>0.1842287308657525</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02762863106333614</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>881761959.8544626</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3165820776.76553</v>
+        <v>5780194523.906579</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004048659644017498</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1519590334282522</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03942928280836094</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2890097421.478862</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4492986564.290733</v>
+        <v>3462989704.483671</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001173283393788778</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1715933476674281</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03935730185868529</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>13</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1731494827.270364</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>7281811297.187371</v>
+        <v>2414017433.805506</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001662963710983747</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
+        <v>0.1819489627909799</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03494051294662313</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1207008681.066775</v>
       </c>
     </row>
     <row r="13">
@@ -791,19 +867,25 @@
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4865551072.88465</v>
+        <v>5316664561.67071</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004713657621650495</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
+        <v>0.06878093959686879</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02781135620682058</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2658332268.680445</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7419578599.275583</v>
+        <v>2640828995.030939</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003134711199914468</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
+        <v>0.1325465210556597</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03513930726638435</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1320414557.766965</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5677105780.61437</v>
+        <v>1270687817.38927</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004841651441692307</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
+        <v>0.06941089415524811</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03848232671238782</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>635343942.0036725</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>505</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2384954707.134371</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.08535768956701958</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04691679891958734</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>4</v>
       </c>
-      <c r="D16" t="n">
-        <v>569</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8151018922.456986</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.005247516965036275</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
+      <c r="J16" t="n">
+        <v>1192477394.455767</v>
       </c>
     </row>
     <row r="17">
@@ -903,19 +1003,25 @@
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5101818085.37347</v>
+        <v>3274195928.954865</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003183533768030581</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
+        <v>0.1584219616668789</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05053814986646108</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1637098034.694542</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5288618265.623492</v>
+        <v>3705202946.379172</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008750709814422918</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
+        <v>0.1524868636041579</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02216439961667011</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1852601452.162886</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3721289549.971237</v>
+        <v>1199685812.74306</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001630017462526742</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1488912252130918</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01850079042253854</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>599842983.9967099</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4844921117.75732</v>
+        <v>2397843341.270804</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0009113289791543259</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1085106111102712</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02411085833876499</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1198921654.411051</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5096635440.614477</v>
+        <v>2205818775.737617</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005895767501825641</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
+        <v>0.08223227294835808</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04392485967805904</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1102909403.954273</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4628133825.585393</v>
+        <v>2814106136.208968</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004135340442586326</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
+        <v>0.09511147688326535</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04323691721166493</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1407053140.567555</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>9001808633.635029</v>
+        <v>1297673067.139672</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00176834249524772</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
+        <v>0.1339951064214564</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04844422863181014</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>648836553.3975294</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5549115565.323457</v>
+        <v>3632415814.238219</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003791322752538436</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
+        <v>0.0927119710708279</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03143677765012991</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1816207899.633958</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5301082192.544097</v>
+        <v>1282721316.20646</v>
       </c>
       <c r="F25" t="n">
-        <v>0.004068200372775629</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
+        <v>0.07895966577515239</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02980104453667952</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>641360656.8371363</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>3684344319.030977</v>
+        <v>1070060860.430998</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001154809124008245</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1216645766532008</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02444118377206421</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>535030419.2651124</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>5461269052.203869</v>
+        <v>2865512075.743185</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003127370828690172</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
+        <v>0.09848385859839405</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02099877444887349</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1432756104.144419</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>6559853343.662726</v>
+        <v>2504615381.393224</v>
       </c>
       <c r="F28" t="n">
-        <v>0.003717957453736427</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
+        <v>0.09630410502096259</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03506565645788234</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>9</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1252307658.748616</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5104784459.541612</v>
+        <v>4100960421.047361</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001495514932788505</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
+        <v>0.09132143173692489</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04054755759491511</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>14</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2050480220.211478</v>
       </c>
     </row>
     <row r="30">
@@ -1267,19 +1445,25 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>7642703723.603144</v>
+        <v>1469287488.047784</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002713260411830491</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
+        <v>0.1269296737753887</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02715636039285109</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>734643720.8425761</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7772954680.124845</v>
+        <v>1332105057.719013</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002181508337416016</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
+        <v>0.102434018368212</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03285434283015193</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>666052449.0559211</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4523922232.682056</v>
+        <v>1626567171.394836</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001390764247875722</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.09496941350855007</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02361226557658643</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>813283680.0913723</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7888890602.147227</v>
+        <v>2758065554.306905</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003122766620670653</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>7</v>
+        <v>0.1838219161748298</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05190027732172432</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1379032793.205362</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>5872181310.951768</v>
+        <v>1137407045.551046</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005237780819097975</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
+        <v>0.1020689120965378</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02211664267017237</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>568703537.909318</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5056603055.550676</v>
+        <v>1310107894.132227</v>
       </c>
       <c r="F35" t="n">
-        <v>0.00204573735478419</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
+        <v>0.1094704289488384</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04140506275110762</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>655053897.3887349</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5515258927.864814</v>
+        <v>2800813597.657296</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003361350700142668</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
+        <v>0.1647549220816961</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02548642020650999</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1400406796.491037</v>
       </c>
     </row>
     <row r="37">
@@ -1463,19 +1683,25 @@
         <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4108189561.120852</v>
+        <v>2805539091.551371</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004970208697630367</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
+        <v>0.08695042225721877</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03208239363475934</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1402769683.683116</v>
       </c>
     </row>
     <row r="38">
@@ -1491,19 +1717,25 @@
         <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3090944294.276938</v>
+        <v>2137822025.602318</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003679846063125022</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1141754148450555</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02499369910753214</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1068910971.772643</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>6182336456.338877</v>
+        <v>1866133873.646902</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002416069043153237</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
+        <v>0.1304728700709956</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02385888721646419</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>933066951.4984014</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>7318984171.736095</v>
+        <v>1670995018.987749</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00451167481221613</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
+        <v>0.1088875062783583</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.03644984422395747</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>835497432.6972615</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>7113260377.654592</v>
+        <v>2648101746.154807</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001389869833172565</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>9</v>
+        <v>0.1381442866723586</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03881991061330279</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>10</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1324050883.737944</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6159331319.284383</v>
+        <v>3895454097.304004</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004036395473569418</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>7</v>
+        <v>0.1157763152739232</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03459805308343453</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>10</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1947727070.555472</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5717920914.966595</v>
+        <v>2391268395.12167</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004431655866046814</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>7</v>
+        <v>0.2003919919491383</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01634684643036699</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1195634256.948627</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5092387210.63098</v>
+        <v>2081777192.221592</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001458740688033394</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>9</v>
+        <v>0.08355311049207478</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02590617733599301</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1040888718.568574</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4097619970.490268</v>
+        <v>1796487421.562284</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001250605882010211</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1898177696304581</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04797481884235107</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>898243680.9572755</v>
       </c>
     </row>
     <row r="46">
@@ -1715,19 +1989,25 @@
         <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>9761344225.757738</v>
+        <v>3950061223.400747</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005335472079542693</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>5</v>
+        <v>0.1423205901820323</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05017010928978458</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>11</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1975030578.180217</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8512092927.253706</v>
+        <v>3772838565.50162</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002184200057862056</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
+        <v>0.1351008373082344</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.03796821663607729</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1886419268.810803</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>8182148323.984813</v>
+        <v>4529365419.695262</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002610626117686381</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>6</v>
+        <v>0.09172715995292079</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03741318083803102</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>10</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2264682713.30733</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4229593757.531464</v>
+        <v>1292698324.715535</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004739921735691874</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1709823743423932</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03272256069097425</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>646349226.4737402</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7982099542.729669</v>
+        <v>2997383036.94324</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003632681030551493</v>
-      </c>
-      <c r="G50" t="b">
+        <v>0.1399175169415461</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04689276050966281</v>
+      </c>
+      <c r="H50" t="b">
         <v>1</v>
       </c>
-      <c r="H50" t="n">
-        <v>9</v>
+      <c r="I50" t="n">
+        <v>10</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1498691578.307228</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4961882082.40328</v>
+        <v>1300989941.406418</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004725496877809932</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1208645017863164</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0516518526550352</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>650495005.7205878</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>7294023437.461688</v>
+        <v>4937014064.994834</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001615571185833133</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>7</v>
+        <v>0.1230720954717569</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05924812971387972</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>13</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2468507033.646216</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>7205886385.453082</v>
+        <v>3220586130.812981</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002362456601376784</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>6</v>
+        <v>0.1878160718528306</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02396664516688243</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>9</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1610293082.433929</v>
       </c>
     </row>
     <row r="54">
@@ -1939,19 +2261,25 @@
         <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5900822802.370584</v>
+        <v>3876711178.761448</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003947093821801913</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>8</v>
+        <v>0.1622893338950654</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.036576763580513</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>10</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1938355643.573131</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7409465072.890911</v>
+        <v>4254269803.112757</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003299148730334297</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>10</v>
+        <v>0.1643057049122149</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0324708817649576</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2127134887.462242</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5481269291.035908</v>
+        <v>1727751309.496063</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002322467323101514</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4</v>
+        <v>0.1067048555432663</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05340843705443001</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>863875663.122707</v>
       </c>
     </row>
     <row r="57">
@@ -2023,19 +2363,25 @@
         <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8472919119.213581</v>
+        <v>4476506011.840934</v>
       </c>
       <c r="F57" t="n">
-        <v>0.002902511114397626</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>7</v>
+        <v>0.1819198284601838</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02315325212328371</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>10</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2238253134.053987</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5486830115.772145</v>
+        <v>1286899650.392695</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00256049408369092</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>7</v>
+        <v>0.1531380661851084</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03688127129785564</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>643449875.5792893</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7543013440.76851</v>
+        <v>3683658512.702274</v>
       </c>
       <c r="F59" t="n">
-        <v>0.002882532556442581</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>4</v>
+        <v>0.09661533887990378</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03424898129785251</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>8</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1841829247.330252</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3680247237.332985</v>
+        <v>2861917171.396841</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002722789156132377</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1962318618183421</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.03090130522874058</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>9</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1430958641.381434</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6058841997.626533</v>
+        <v>2956547875.984915</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005049566539710259</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>7</v>
+        <v>0.12410132008626</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0283009503385086</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1478273922.355206</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5989853461.411407</v>
+        <v>1620872200.329861</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003363856891162797</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5</v>
+        <v>0.1385723477985074</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03029720623138565</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>810436101.135053</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7709277023.408441</v>
+        <v>3823750729.453218</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00382982271830612</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>8</v>
+        <v>0.0958840054625003</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03246328456261136</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>9</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1911875434.792615</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5433993148.505585</v>
+        <v>3890525660.373749</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004237569307929973</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1795671540868926</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03414507786048596</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>9</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1945262858.118026</v>
       </c>
     </row>
     <row r="65">
@@ -2247,19 +2635,25 @@
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4729313026.450377</v>
+        <v>5051589392.807714</v>
       </c>
       <c r="F65" t="n">
-        <v>0.003608647412281542</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>7</v>
+        <v>0.1588912909422739</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.03158849036032747</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>11</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2525794652.015323</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4290322339.674963</v>
+        <v>5615225043.45771</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002556851120182461</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>6</v>
+        <v>0.1463935648825358</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04831091184363737</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>9</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2807612581.701942</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>7306881824.253485</v>
+        <v>3279743192.30641</v>
       </c>
       <c r="F67" t="n">
-        <v>0.00363787957964743</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>6</v>
+        <v>0.08583470536922284</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04086211125641032</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1639871590.565693</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6378764114.052785</v>
+        <v>3807472492.923218</v>
       </c>
       <c r="F68" t="n">
-        <v>0.003025153706029898</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>6</v>
+        <v>0.1093029636242279</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04659323346371608</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1903736230.396517</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6662254722.175827</v>
+        <v>2198258631.630114</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0008259195690723236</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>5</v>
+        <v>0.1409243684627278</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05838567991100107</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1099129346.208787</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6568912466.606367</v>
+        <v>2883588897.436182</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002946941956104674</v>
-      </c>
-      <c r="G70" t="b">
+        <v>0.06493864291569668</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03434222288455402</v>
+      </c>
+      <c r="H70" t="b">
         <v>1</v>
       </c>
-      <c r="H70" t="n">
-        <v>7</v>
+      <c r="I70" t="n">
+        <v>8</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1441794417.941498</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
+        <v>5</v>
+      </c>
+      <c r="D71" t="n">
+        <v>531</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4474629926.190654</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.1362483479785546</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02226104463079865</v>
+      </c>
+      <c r="H71" t="b">
         <v>1</v>
       </c>
-      <c r="D71" t="n">
-        <v>474</v>
-      </c>
-      <c r="E71" t="n">
-        <v>4312397215.795739</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.003464153797377983</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+      <c r="I71" t="n">
+        <v>11</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2237315029.373672</v>
       </c>
     </row>
     <row r="72">
@@ -2443,19 +2873,25 @@
         <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5625439359.895719</v>
+        <v>2121066450.257743</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001827109817731161</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>6</v>
+        <v>0.0742746131483886</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03629984872432262</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1060533151.713186</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6091341973.602633</v>
+        <v>3569923563.54857</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001039611130833688</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>7</v>
+        <v>0.1076499533577065</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04291388705493081</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1784961725.405155</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5634500592.95649</v>
+        <v>3626693092.402518</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004316418404810933</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>8</v>
+        <v>0.1437750125873905</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02506808716343917</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>10</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1813346557.244343</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6933567081.26776</v>
+        <v>2248706487.390843</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004394440132909894</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>6</v>
+        <v>0.1120924467212108</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03437516318409544</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1124353184.371114</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" t="n">
+        <v>412</v>
+      </c>
+      <c r="E76" t="n">
+        <v>5312890114.812875</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.123761851316364</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.027195586684913</v>
+      </c>
+      <c r="H76" t="b">
         <v>1</v>
       </c>
-      <c r="D76" t="n">
-        <v>459</v>
-      </c>
-      <c r="E76" t="n">
-        <v>6433067238.283249</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.002421730341461708</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>6</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2656445096.983095</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6354603855.497003</v>
+        <v>1966029678.782699</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005494049597260186</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>11</v>
+        <v>0.1527873409520684</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02464393321316887</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>983014895.6937984</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5722191810.386829</v>
+        <v>3539635456.876156</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004747654443617369</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>7</v>
+        <v>0.1120436890089459</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04694807975449876</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>11</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1769817726.94155</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>5717524518.348406</v>
+        <v>1716842886.088793</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002124898691711942</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>6</v>
+        <v>0.1214343382071751</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02511572571128043</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>858421514.9789385</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6154905617.780024</v>
+        <v>4810613095.787208</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002580146392190113</v>
-      </c>
-      <c r="G80" t="b">
+        <v>0.07887373774938543</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02344332902197909</v>
+      </c>
+      <c r="H80" t="b">
         <v>1</v>
       </c>
-      <c r="H80" t="n">
-        <v>12</v>
+      <c r="I80" t="n">
+        <v>6</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2405306587.479675</v>
       </c>
     </row>
     <row r="81">
@@ -2695,19 +3179,25 @@
         <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>6236162896.815328</v>
+        <v>4547821697.943591</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004711715716434053</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>6</v>
+        <v>0.09894873875523189</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0292928642734662</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2273910832.355708</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5926719299.921895</v>
+        <v>5201539305.844893</v>
       </c>
       <c r="F82" t="n">
-        <v>0.00460769539052606</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>5</v>
+        <v>0.1952075078401141</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02325002616768294</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2600769625.418211</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>7961071454.206859</v>
+        <v>1983818386.831566</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003551018121045114</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>8</v>
+        <v>0.1526758363162196</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03794651187349918</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>991909176.5632188</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5836858895.816736</v>
+        <v>2583077031.234272</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004392166491106142</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>9</v>
+        <v>0.0811034914194269</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04662235859822184</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1291538435.035346</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4971128747.975753</v>
+        <v>2969315731.581853</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002541139178329201</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1130570558975052</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.05130037159859291</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>12</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1484657922.376889</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8150041704.61557</v>
+        <v>1832910541.363845</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002198220675947508</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>9</v>
+        <v>0.1158040825780215</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02707235555752672</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>916455274.8668619</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4598275193.789033</v>
+        <v>995146787.2990117</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001280798053248163</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1303121485991832</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03655612290616862</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>497573396.5258326</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8097336136.647302</v>
+        <v>3063769401.117651</v>
       </c>
       <c r="F88" t="n">
-        <v>0.00362847704393706</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>7</v>
+        <v>0.1647341766786791</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02475669234121576</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>12</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1531884737.118104</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5425818018.579053</v>
+        <v>2923419954.716761</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003877633631065754</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>7</v>
+        <v>0.1260565410988309</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02589837151910408</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1461710020.882254</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>7568160907.007151</v>
+        <v>1534900285.24652</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003283500417382722</v>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>5</v>
+        <v>0.08370792701268956</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04306924533933015</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>767450127.5526574</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>8033564537.452641</v>
+        <v>1469035738.059192</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004824259504748149</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>9</v>
+        <v>0.1206120512396546</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05566843674745684</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>734517911.8809733</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4011746745.599404</v>
+        <v>2312260502.950188</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003770324895214333</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.1013877260272831</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04332367080017833</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>9</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1156130221.037296</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5087134446.92413</v>
+        <v>4941733699.545621</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001884617650750883</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>11</v>
+        <v>0.1322406454671788</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04909861207139922</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>9</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2470866789.289598</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5048273155.457702</v>
+        <v>1904243501.43644</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001453705484476057</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>10</v>
+        <v>0.16407611454133</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.04202746720832611</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>952121736.3834846</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" t="n">
+        <v>433</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3182841904.605283</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.1127021177703451</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03400262055956663</v>
+      </c>
+      <c r="H95" t="b">
         <v>1</v>
       </c>
-      <c r="D95" t="n">
-        <v>511</v>
-      </c>
-      <c r="E95" t="n">
-        <v>7190082166.34991</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.002672118176871195</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>8</v>
+      <c r="I95" t="n">
+        <v>7</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1591420938.587738</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>6586321349.904815</v>
+        <v>1650698908.124664</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002780061813444913</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>8</v>
+        <v>0.1263418791794182</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03093798111778403</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>825349478.1308765</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
+        <v>4</v>
+      </c>
+      <c r="D97" t="n">
+        <v>498</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4467629563.198468</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.120916053731417</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02071755495560974</v>
+      </c>
+      <c r="H97" t="b">
         <v>1</v>
       </c>
-      <c r="D97" t="n">
-        <v>514</v>
-      </c>
-      <c r="E97" t="n">
-        <v>6568555076.823391</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.004864302824060992</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>8</v>
+      <c r="I97" t="n">
+        <v>10</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2233814875.385388</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>5722657441.597078</v>
+        <v>3817240437.006416</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004562357885459892</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>12</v>
+        <v>0.1247282168822602</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02014481318831611</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>8</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1908620258.462481</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2487535188.294625</v>
+        <v>3119977179.561411</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004682142802249368</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1334159025621842</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02248910745013641</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>10</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1559988584.276925</v>
       </c>
     </row>
     <row r="100">
@@ -3227,19 +3825,25 @@
         <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4554626253.182546</v>
+        <v>4369598785.234917</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002985595756603614</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
+        <v>0.1535079966226475</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02332786806309939</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>9</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2184799492.58814</v>
       </c>
     </row>
     <row r="101">
@@ -3255,19 +3859,25 @@
         <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7886355896.369384</v>
+        <v>3096612187.951731</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001298158298601931</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>9</v>
+        <v>0.2187612346818794</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05674309470198424</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>13</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1548306195.596875</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_31.xlsx
+++ b/output/fit_clients/fit_round_31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1596169672.154727</v>
+        <v>1749806456.167293</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1007292560969653</v>
+        <v>0.08704598680786252</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03188342029113291</v>
+        <v>0.03326095304171955</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>798084777.1868249</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1726099600.785578</v>
+        <v>2594603026.791679</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1813952295720998</v>
+        <v>0.1430238723652196</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0390050911965943</v>
+        <v>0.0342695061779966</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>863049797.7743382</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4072807373.323079</v>
+        <v>4659051792.813709</v>
       </c>
       <c r="F4" t="n">
-        <v>0.15471670412175</v>
+        <v>0.1454715160646656</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03291976800381841</v>
+        <v>0.02829903339141238</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2036403705.8081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2670050574.768414</v>
+        <v>2918123488.978798</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09456940623463354</v>
+        <v>0.1021569968392117</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04872930015773046</v>
+        <v>0.03394459301251155</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1335025378.810376</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2340313559.21944</v>
+        <v>2684337904.239316</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0988324587283983</v>
+        <v>0.1392854568928139</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03582978054868274</v>
+        <v>0.04694632604630928</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1170156772.190765</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1973879961.47204</v>
+        <v>1997951983.469445</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0636966562081004</v>
+        <v>0.1007026783887589</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03387522735331822</v>
+        <v>0.03914862007205103</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>986940044.2362005</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3188295286.438139</v>
+        <v>3450135013.800503</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1816445661167571</v>
+        <v>0.2009708045108551</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0273702035745692</v>
+        <v>0.03279627655263723</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1594147719.779662</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1763523801.25792</v>
+        <v>1654719194.740937</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1842287308657525</v>
+        <v>0.1293837690959171</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02762863106333614</v>
+        <v>0.03285780176961956</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>881761959.8544626</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5780194523.906579</v>
+        <v>5857521726.599098</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1519590334282522</v>
+        <v>0.134177053484096</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03942928280836094</v>
+        <v>0.05300179682054684</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>13</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2890097421.478862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3462989704.483671</v>
+        <v>3818133457.175624</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1715933476674281</v>
+        <v>0.154756924749015</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03935730185868529</v>
+        <v>0.03791532865684376</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>13</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1731494827.270364</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2414017433.805506</v>
+        <v>2600754946.983773</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1819489627909799</v>
+        <v>0.1785922872217214</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03494051294662313</v>
+        <v>0.03961136052057927</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>10</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1207008681.066775</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5316664561.67071</v>
+        <v>3542944229.284052</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06878093959686879</v>
+        <v>0.0788194119911174</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02781135620682058</v>
+        <v>0.01952653216067594</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>10</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2658332268.680445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2640828995.030939</v>
+        <v>3120204735.02681</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1325465210556597</v>
+        <v>0.1253385591539408</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03513930726638435</v>
+        <v>0.04027579643338282</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>10</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1320414557.766965</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1270687817.38927</v>
+        <v>1370286001.3526</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06941089415524811</v>
+        <v>0.06920329795525706</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03848232671238782</v>
+        <v>0.03054374040858775</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>635343942.0036725</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2384954707.134371</v>
+        <v>2042820058.71309</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08535768956701958</v>
+        <v>0.09068700375152573</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04691679891958734</v>
+        <v>0.03856503511913365</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1192477394.455767</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3274195928.954865</v>
+        <v>3212351973.2403</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1584219616668789</v>
+        <v>0.1156375664693741</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05053814986646108</v>
+        <v>0.05246424334978948</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1637098034.694542</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3705202946.379172</v>
+        <v>2443640940.938206</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1524868636041579</v>
+        <v>0.1242013517365513</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02216439961667011</v>
+        <v>0.03025121698551092</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>10</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1852601452.162886</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1199685812.74306</v>
+        <v>950940832.3909721</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1488912252130918</v>
+        <v>0.1380691797227116</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01850079042253854</v>
+        <v>0.01959156209507189</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>599842983.9967099</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2397843341.270804</v>
+        <v>2326251387.738019</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1085106111102712</v>
+        <v>0.150069183967782</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02411085833876499</v>
+        <v>0.02171384926725288</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1198921654.411051</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2205818775.737617</v>
+        <v>1942289675.324531</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08223227294835808</v>
+        <v>0.07478946125445428</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04392485967805904</v>
+        <v>0.04027291900911097</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1102909403.954273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2814106136.208968</v>
+        <v>3558150171.408686</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09511147688326535</v>
+        <v>0.118491328343436</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04323691721166493</v>
+        <v>0.05405473287011123</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>8</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1407053140.567555</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1297673067.139672</v>
+        <v>1263187291.993053</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1339951064214564</v>
+        <v>0.1534620964852017</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04844422863181014</v>
+        <v>0.04732232326691428</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>648836553.3975294</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3632415814.238219</v>
+        <v>3419608832.428123</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0927119710708279</v>
+        <v>0.1421686651253865</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03143677765012991</v>
+        <v>0.02931713316619606</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1816207899.633958</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1282721316.20646</v>
+        <v>1264133042.221004</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07895966577515239</v>
+        <v>0.1179444100340537</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02980104453667952</v>
+        <v>0.02351782869215551</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>641360656.8371363</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1070060860.430998</v>
+        <v>943178133.8219512</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1216645766532008</v>
+        <v>0.1156820265995662</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02444118377206421</v>
+        <v>0.03805208531412046</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>535030419.2651124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2865512075.743185</v>
+        <v>4169294178.752654</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09848385859839405</v>
+        <v>0.1259507357826011</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02099877444887349</v>
+        <v>0.02190330916822262</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>7</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1432756104.144419</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2504615381.393224</v>
+        <v>2827419614.318876</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09630410502096259</v>
+        <v>0.1270748323117672</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03506565645788234</v>
+        <v>0.04150054783135974</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1252307658.748616</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4100960421.047361</v>
+        <v>3790477917.872481</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09132143173692489</v>
+        <v>0.1401872351063284</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04054755759491511</v>
+        <v>0.03804022637336897</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>14</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2050480220.211478</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1469287488.047784</v>
+        <v>1684170223.183998</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1269296737753887</v>
+        <v>0.120386875958984</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02715636039285109</v>
+        <v>0.03101091627906869</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>734643720.8425761</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1332105057.719013</v>
+        <v>951565914.0791806</v>
       </c>
       <c r="F31" t="n">
-        <v>0.102434018368212</v>
+        <v>0.09702106191905449</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03285434283015193</v>
+        <v>0.04161153401135151</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>666052449.0559211</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1626567171.394836</v>
+        <v>1257440189.068709</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09496941350855007</v>
+        <v>0.109912231793691</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02361226557658643</v>
+        <v>0.03178319103292586</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>813283680.0913723</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2758065554.306905</v>
+        <v>2290415909.692168</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1838219161748298</v>
+        <v>0.1778850362910844</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05190027732172432</v>
+        <v>0.0566301981781676</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1379032793.205362</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1137407045.551046</v>
+        <v>1346887754.321778</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1020689120965378</v>
+        <v>0.09781680333140801</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02211664267017237</v>
+        <v>0.01820712476110788</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>568703537.909318</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1310107894.132227</v>
+        <v>1134614750.39034</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1094704289488384</v>
+        <v>0.09939318111088251</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04140506275110762</v>
+        <v>0.03912126856700208</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>655053897.3887349</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2800813597.657296</v>
+        <v>2107800220.440923</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1647549220816961</v>
+        <v>0.1626849029888422</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02548642020650999</v>
+        <v>0.02729087421461968</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>8</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1400406796.491037</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2805539091.551371</v>
+        <v>2821636092.392959</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08695042225721877</v>
+        <v>0.1088172196093635</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03208239363475934</v>
+        <v>0.02699316516074866</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>6</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1402769683.683116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2137822025.602318</v>
+        <v>1686789017.631099</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1141754148450555</v>
+        <v>0.07697287777803402</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02499369910753214</v>
+        <v>0.03731715272705637</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1068910971.772643</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1866133873.646902</v>
+        <v>1664894019.729097</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1304728700709956</v>
+        <v>0.1213073670126183</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02385888721646419</v>
+        <v>0.03188845894207896</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>933066951.4984014</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1670995018.987749</v>
+        <v>1395410540.377878</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1088875062783583</v>
+        <v>0.1364608751677626</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03644984422395747</v>
+        <v>0.05831950312569249</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>835497432.6972615</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2648101746.154807</v>
+        <v>2082510120.65883</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1381442866723586</v>
+        <v>0.1199883737609516</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03881991061330279</v>
+        <v>0.03167789762982216</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>10</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1324050883.737944</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3895454097.304004</v>
+        <v>3834140250.450063</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1157763152739232</v>
+        <v>0.1001151704584416</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03459805308343453</v>
+        <v>0.0301507555469722</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>10</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1947727070.555472</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2391268395.12167</v>
+        <v>2957738742.362643</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2003919919491383</v>
+        <v>0.15414521419669</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01634684643036699</v>
+        <v>0.01869871598170916</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>9</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1195634256.948627</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2081777192.221592</v>
+        <v>1730455059.386797</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08355311049207478</v>
+        <v>0.07758573416400029</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02590617733599301</v>
+        <v>0.03179739855088487</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1040888718.568574</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1796487421.562284</v>
+        <v>2064922482.403332</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1898177696304581</v>
+        <v>0.1493536196435033</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04797481884235107</v>
+        <v>0.05171575382988937</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>898243680.9572755</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3950061223.400747</v>
+        <v>4670738058.997592</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1423205901820323</v>
+        <v>0.1606248991800133</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05017010928978458</v>
+        <v>0.04280847040081437</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>11</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1975030578.180217</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3772838565.50162</v>
+        <v>3589283644.22435</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1351008373082344</v>
+        <v>0.1729489579052119</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03796821663607729</v>
+        <v>0.05183058643132564</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1886419268.810803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4529365419.695262</v>
+        <v>3670510946.362694</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09172715995292079</v>
+        <v>0.1101943910992559</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03741318083803102</v>
+        <v>0.03087981983463817</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>10</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2264682713.30733</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1292698324.715535</v>
+        <v>1938507736.32779</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1709823743423932</v>
+        <v>0.1181567968644525</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03272256069097425</v>
+        <v>0.03253324099502809</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>646349226.4737402</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2997383036.94324</v>
+        <v>2625080992.410928</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1399175169415461</v>
+        <v>0.117889614386208</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04689276050966281</v>
+        <v>0.04106717348641264</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>10</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1498691578.307228</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1300989941.406418</v>
+        <v>1304049272.609279</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1208645017863164</v>
+        <v>0.1917300525671356</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0516518526550352</v>
+        <v>0.0402916751790811</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>650495005.7205878</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4937014064.994834</v>
+        <v>3757337834.588616</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1230720954717569</v>
+        <v>0.1371435070191422</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05924812971387972</v>
+        <v>0.04918397813565827</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>13</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2468507033.646216</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3220586130.812981</v>
+        <v>3017497107.812776</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1878160718528306</v>
+        <v>0.135939627453483</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02396664516688243</v>
+        <v>0.02907055215229777</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1610293082.433929</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3876711178.761448</v>
+        <v>4830021714.633432</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1622893338950654</v>
+        <v>0.1045681065208764</v>
       </c>
       <c r="G54" t="n">
-        <v>0.036576763580513</v>
+        <v>0.04776028003079127</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>10</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1938355643.573131</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4254269803.112757</v>
+        <v>4382613976.899303</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1643057049122149</v>
+        <v>0.2205812722698666</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0324708817649576</v>
+        <v>0.03160160506884566</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>8</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2127134887.462242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1727751309.496063</v>
+        <v>1274391448.315974</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1067048555432663</v>
+        <v>0.1165168796947909</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05340843705443001</v>
+        <v>0.03987453606059967</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>863875663.122707</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4476506011.840934</v>
+        <v>3300857588.815664</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1819198284601838</v>
+        <v>0.1522162169000988</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02315325212328371</v>
+        <v>0.02633304345637555</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>10</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2238253134.053987</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1286899650.392695</v>
+        <v>1359181278.202519</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1531380661851084</v>
+        <v>0.1859370870099361</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03688127129785564</v>
+        <v>0.03489779311298992</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>643449875.5792893</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3683658512.702274</v>
+        <v>4317489996.141478</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09661533887990378</v>
+        <v>0.1245298835021672</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03424898129785251</v>
+        <v>0.04653719126584895</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>8</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1841829247.330252</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2861917171.396841</v>
+        <v>2843357990.275179</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1962318618183421</v>
+        <v>0.1906435714521852</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03090130522874058</v>
+        <v>0.02713365039727515</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>9</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1430958641.381434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2956547875.984915</v>
+        <v>3130022904.608233</v>
       </c>
       <c r="F61" t="n">
-        <v>0.12410132008626</v>
+        <v>0.1791492871789475</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0283009503385086</v>
+        <v>0.02059576412167819</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>11</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1478273922.355206</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1620872200.329861</v>
+        <v>1955141174.202749</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1385723477985074</v>
+        <v>0.1428750506584994</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03029720623138565</v>
+        <v>0.04632943075599238</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>810436101.135053</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3823750729.453218</v>
+        <v>3794283995.318012</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0958840054625003</v>
+        <v>0.1063763300281394</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03246328456261136</v>
+        <v>0.04160822488470074</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>9</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1911875434.792615</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3890525660.373749</v>
+        <v>4620130323.651787</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1795671540868926</v>
+        <v>0.1842412977248052</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03414507786048596</v>
+        <v>0.03423436949815958</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>9</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1945262858.118026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5051589392.807714</v>
+        <v>4476506203.182444</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1588912909422739</v>
+        <v>0.1682298527826578</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03158849036032747</v>
+        <v>0.0319648036399716</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>11</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2525794652.015323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5615225043.45771</v>
+        <v>5018707656.954128</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1463935648825358</v>
+        <v>0.1062080684196583</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04831091184363737</v>
+        <v>0.0346300910411612</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>9</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2807612581.701942</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3279743192.30641</v>
+        <v>2912042801.771803</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08583470536922284</v>
+        <v>0.103038695499535</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04086211125641032</v>
+        <v>0.03383617467946644</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>10</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1639871590.565693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3807472492.923218</v>
+        <v>5693506328.123655</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1093029636242279</v>
+        <v>0.09713589680240074</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04659323346371608</v>
+        <v>0.05027186452289233</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>10</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1903736230.396517</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2198258631.630114</v>
+        <v>2433778584.695502</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1409243684627278</v>
+        <v>0.157247132668189</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05838567991100107</v>
+        <v>0.04287851107804692</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1099129346.208787</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2883588897.436182</v>
+        <v>2799774548.185352</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06493864291569668</v>
+        <v>0.06699095245723667</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03434222288455402</v>
+        <v>0.03545272850260596</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>8</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1441794417.941498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4474629926.190654</v>
+        <v>5118222737.276212</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1362483479785546</v>
+        <v>0.1567104615643548</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02226104463079865</v>
+        <v>0.02918595754323873</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>11</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2237315029.373672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2121066450.257743</v>
+        <v>2239276127.561935</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0742746131483886</v>
+        <v>0.07078275370234671</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03629984872432262</v>
+        <v>0.0527265177614456</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1060533151.713186</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3569923563.54857</v>
+        <v>2401078795.396482</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1076499533577065</v>
+        <v>0.08274694589483095</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04291388705493081</v>
+        <v>0.043546912780666</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>12</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1784961725.405155</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3626693092.402518</v>
+        <v>2748640559.454731</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1437750125873905</v>
+        <v>0.1787983608496387</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02506808716343917</v>
+        <v>0.02430746452242416</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>10</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1813346557.244343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2248706487.390843</v>
+        <v>2281317796.720226</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1120924467212108</v>
+        <v>0.1087115623033453</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03437516318409544</v>
+        <v>0.03281768578728592</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1124353184.371114</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5312890114.812875</v>
+        <v>5036539934.722821</v>
       </c>
       <c r="F76" t="n">
-        <v>0.123761851316364</v>
+        <v>0.116322822742348</v>
       </c>
       <c r="G76" t="n">
-        <v>0.027195586684913</v>
+        <v>0.02759605269164841</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>6</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2656445096.983095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1966029678.782699</v>
+        <v>1457651452.264652</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1527873409520684</v>
+        <v>0.1519445817314927</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02464393321316887</v>
+        <v>0.02074558002179812</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>983014895.6937984</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3539635456.876156</v>
+        <v>4559471789.434435</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1120436890089459</v>
+        <v>0.111603364530196</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04694807975449876</v>
+        <v>0.05389963456581933</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>11</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1769817726.94155</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1716842886.088793</v>
+        <v>1866632467.443771</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1214343382071751</v>
+        <v>0.1204639766009133</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02511572571128043</v>
+        <v>0.02778208780041946</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>858421514.9789385</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4810613095.787208</v>
+        <v>5000469071.783822</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07887373774938543</v>
+        <v>0.09674615626306012</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02344332902197909</v>
+        <v>0.03233431352463004</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>6</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2405306587.479675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4547821697.943591</v>
+        <v>3898723296.22167</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09894873875523189</v>
+        <v>0.09156701816866537</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0292928642734662</v>
+        <v>0.02316356888717454</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>7</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2273910832.355708</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5201539305.844893</v>
+        <v>3678509013.307132</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1952075078401141</v>
+        <v>0.1412825754090474</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02325002616768294</v>
+        <v>0.02130013929922024</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>11</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2600769625.418211</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1983818386.831566</v>
+        <v>1517688656.786634</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1526758363162196</v>
+        <v>0.1242829876389498</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03794651187349918</v>
+        <v>0.03995075767172103</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>991909176.5632188</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2583077031.234272</v>
+        <v>1717662568.73206</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0811034914194269</v>
+        <v>0.07594065792339343</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04662235859822184</v>
+        <v>0.04421328150681005</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1291538435.035346</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2969315731.581853</v>
+        <v>3101297104.088466</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1130570558975052</v>
+        <v>0.1677568991939077</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05130037159859291</v>
+        <v>0.03939508702986543</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>12</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1484657922.376889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1832910541.363845</v>
+        <v>2522926387.534537</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1158040825780215</v>
+        <v>0.1451646400122262</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02707235555752672</v>
+        <v>0.02305423656346161</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>916455274.8668619</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>995146787.2990117</v>
+        <v>1290845781.541262</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1303121485991832</v>
+        <v>0.1219782919564534</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03655612290616862</v>
+        <v>0.03452107517873057</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>497573396.5258326</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3063769401.117651</v>
+        <v>3317963576.96443</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1647341766786791</v>
+        <v>0.1590901003304303</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02475669234121576</v>
+        <v>0.03315494242731314</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>12</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1531884737.118104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2923419954.716761</v>
+        <v>2172642453.349535</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1260565410988309</v>
+        <v>0.1282178336887816</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02589837151910408</v>
+        <v>0.0291343151236368</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>10</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1461710020.882254</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1534900285.24652</v>
+        <v>1503994205.292555</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08370792701268956</v>
+        <v>0.1019832737099997</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04306924533933015</v>
+        <v>0.05588739247270409</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>767450127.5526574</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1469035738.059192</v>
+        <v>1775094337.570948</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1206120512396546</v>
+        <v>0.1699829961886766</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05566843674745684</v>
+        <v>0.04195548631375262</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>734517911.8809733</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2312260502.950188</v>
+        <v>2394673594.722696</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1013877260272831</v>
+        <v>0.09750516675659496</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04332367080017833</v>
+        <v>0.04542290093280964</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>9</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1156130221.037296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4941733699.545621</v>
+        <v>3360465816.500371</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1322406454671788</v>
+        <v>0.1230682323969139</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04909861207139922</v>
+        <v>0.04283479094997216</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>9</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2470866789.289598</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1904243501.43644</v>
+        <v>2468798098.737729</v>
       </c>
       <c r="F94" t="n">
-        <v>0.16407611454133</v>
+        <v>0.1558316196489936</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04202746720832611</v>
+        <v>0.03388595302626604</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>952121736.3834846</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3182841904.605283</v>
+        <v>1984172465.26826</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1127021177703451</v>
+        <v>0.1133570961689943</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03400262055956663</v>
+        <v>0.05116275039135652</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>7</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1591420938.587738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1650698908.124664</v>
+        <v>1929541206.303555</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1263418791794182</v>
+        <v>0.1123595256723562</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03093798111778403</v>
+        <v>0.04387722445568753</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>825349478.1308765</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4467629563.198468</v>
+        <v>5314573122.379237</v>
       </c>
       <c r="F97" t="n">
-        <v>0.120916053731417</v>
+        <v>0.145080812167433</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02071755495560974</v>
+        <v>0.02054861477494677</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>10</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2233814875.385388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3817240437.006416</v>
+        <v>3882866060.676838</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1247282168822602</v>
+        <v>0.1241730881331568</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02014481318831611</v>
+        <v>0.03243481173864249</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>8</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1908620258.462481</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3119977179.561411</v>
+        <v>3289413257.461873</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1334159025621842</v>
+        <v>0.1407722001522276</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02248910745013641</v>
+        <v>0.03377703716955562</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>10</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1559988584.276925</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4369598785.234917</v>
+        <v>4115527288.952353</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1535079966226475</v>
+        <v>0.1588584129040574</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02332786806309939</v>
+        <v>0.02486693176707751</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>9</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2184799492.58814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3096612187.951731</v>
+        <v>2186326755.184461</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2187612346818794</v>
+        <v>0.1800959363709075</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05674309470198424</v>
+        <v>0.05497493826384237</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>13</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1548306195.596875</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_31.xlsx
+++ b/output/fit_clients/fit_round_31.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1749806456.167293</v>
+        <v>1837086943.164388</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08704598680786252</v>
+        <v>0.07155785771021268</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03326095304171955</v>
+        <v>0.02982261188574376</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2594603026.791679</v>
+        <v>2388682944.847502</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1430238723652196</v>
+        <v>0.1468081041613172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0342695061779966</v>
+        <v>0.04765031584542932</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4659051792.813709</v>
+        <v>3655179866.362811</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1454715160646656</v>
+        <v>0.1165789389856107</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02829903339141238</v>
+        <v>0.02327144637266932</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2918123488.978798</v>
+        <v>3335715708.118171</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1021569968392117</v>
+        <v>0.09487933017228992</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03394459301251155</v>
+        <v>0.04061683867963091</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2684337904.239316</v>
+        <v>2002128809.739758</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1392854568928139</v>
+        <v>0.1383105720589228</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04694632604630928</v>
+        <v>0.04437175598011258</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1997951983.469445</v>
+        <v>2579627954.039649</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1007026783887589</v>
+        <v>0.06363022003590826</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03914862007205103</v>
+        <v>0.04368107858396487</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3450135013.800503</v>
+        <v>2669823573.794452</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2009708045108551</v>
+        <v>0.1927789384741869</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03279627655263723</v>
+        <v>0.03036335835160427</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1654719194.740937</v>
+        <v>2077863100.58474</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1293837690959171</v>
+        <v>0.1663632100966868</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03285780176961956</v>
+        <v>0.03646384908525116</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5857521726.599098</v>
+        <v>3726195968.757432</v>
       </c>
       <c r="F10" t="n">
-        <v>0.134177053484096</v>
+        <v>0.1666101389628684</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05300179682054684</v>
+        <v>0.04202661527016612</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3818133457.175624</v>
+        <v>3434753070.639421</v>
       </c>
       <c r="F11" t="n">
-        <v>0.154756924749015</v>
+        <v>0.1480237167272694</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03791532865684376</v>
+        <v>0.03370798118517231</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2600754946.983773</v>
+        <v>3301041595.077202</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1785922872217214</v>
+        <v>0.1971949035275835</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03961136052057927</v>
+        <v>0.04664039120309948</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3542944229.284052</v>
+        <v>4124571319.136127</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0788194119911174</v>
+        <v>0.08667419669936792</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01952653216067594</v>
+        <v>0.02065715927538828</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3120204735.02681</v>
+        <v>2376455103.604321</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1253385591539408</v>
+        <v>0.1739508816333055</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04027579643338282</v>
+        <v>0.03615435968989739</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1370286001.3526</v>
+        <v>1326455556.865029</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06920329795525706</v>
+        <v>0.07065022768578699</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03054374040858775</v>
+        <v>0.03134471102459675</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2042820058.71309</v>
+        <v>2664703251.62022</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09068700375152573</v>
+        <v>0.0917741714739837</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03856503511913365</v>
+        <v>0.03180146754677512</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3212351973.2403</v>
+        <v>5171679286.807034</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1156375664693741</v>
+        <v>0.106356692281225</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05246424334978948</v>
+        <v>0.05313167548196852</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2443640940.938206</v>
+        <v>3490418692.444427</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1242013517365513</v>
+        <v>0.1299694201623788</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03025121698551092</v>
+        <v>0.03393945664714452</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>950940832.3909721</v>
+        <v>1243191899.680547</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1380691797227116</v>
+        <v>0.1901706249118036</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01959156209507189</v>
+        <v>0.02598245921206964</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2326251387.738019</v>
+        <v>2787761248.248673</v>
       </c>
       <c r="F20" t="n">
-        <v>0.150069183967782</v>
+        <v>0.1531575656153026</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02171384926725288</v>
+        <v>0.02157726391231345</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1942289675.324531</v>
+        <v>2260701409.28592</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07478946125445428</v>
+        <v>0.07900677944963534</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04027291900911097</v>
+        <v>0.0294821445878339</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,16 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3558150171.408686</v>
+        <v>3376298175.588056</v>
       </c>
       <c r="F22" t="n">
-        <v>0.118491328343436</v>
+        <v>0.09064674529176565</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05405473287011123</v>
+        <v>0.04707700535885163</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1263187291.993053</v>
+        <v>1128439433.09661</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1534620964852017</v>
+        <v>0.116132992261133</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04732232326691428</v>
+        <v>0.04623103223015222</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3419608832.428123</v>
+        <v>2547072435.3377</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1421686651253865</v>
+        <v>0.11598380627036</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02931713316619606</v>
+        <v>0.02719149270794413</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1264133042.221004</v>
+        <v>1146328501.422314</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1179444100340537</v>
+        <v>0.1191363601341049</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02351782869215551</v>
+        <v>0.02440409785867999</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>943178133.8219512</v>
+        <v>1043471273.492007</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1156820265995662</v>
+        <v>0.09746049128979141</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03805208531412046</v>
+        <v>0.02830605027181409</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4169294178.752654</v>
+        <v>3228887490.886838</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1259507357826011</v>
+        <v>0.1133352844954557</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02190330916822262</v>
+        <v>0.01971902473953377</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2827419614.318876</v>
+        <v>2742371733.729818</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1270748323117672</v>
+        <v>0.1460827149754254</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04150054783135974</v>
+        <v>0.03204910955740971</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3790477917.872481</v>
+        <v>4172309492.802173</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1401872351063284</v>
+        <v>0.09547831098635222</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03804022637336897</v>
+        <v>0.03603567993429022</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1684170223.183998</v>
+        <v>1479744880.261086</v>
       </c>
       <c r="F30" t="n">
-        <v>0.120386875958984</v>
+        <v>0.09714931594585886</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03101091627906869</v>
+        <v>0.02806081759894878</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>951565914.0791806</v>
+        <v>1195769725.423505</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09702106191905449</v>
+        <v>0.08011820267567424</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04161153401135151</v>
+        <v>0.03967318140100339</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1257440189.068709</v>
+        <v>1162940648.121919</v>
       </c>
       <c r="F32" t="n">
-        <v>0.109912231793691</v>
+        <v>0.1081242696836141</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03178319103292586</v>
+        <v>0.02672148786303982</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2290415909.692168</v>
+        <v>3075178441.478272</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1778850362910844</v>
+        <v>0.1934694519276901</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0566301981781676</v>
+        <v>0.0592955789910212</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1346887754.321778</v>
+        <v>1115902821.088553</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09781680333140801</v>
+        <v>0.07976093266585384</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01820712476110788</v>
+        <v>0.01778687983571195</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1134614750.39034</v>
+        <v>1199328785.259909</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09939318111088251</v>
+        <v>0.09974125686944754</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03912126856700208</v>
+        <v>0.03294630017305653</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2107800220.440923</v>
+        <v>2026470749.806767</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1626849029888422</v>
+        <v>0.1338588120947154</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02729087421461968</v>
+        <v>0.02843537734106452</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2821636092.392959</v>
+        <v>2568334992.197065</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1088172196093635</v>
+        <v>0.1060791628503802</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02699316516074866</v>
+        <v>0.03707662286685609</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1686789017.631099</v>
+        <v>1678343784.880758</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07697287777803402</v>
+        <v>0.1077732880533371</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03731715272705637</v>
+        <v>0.03511764020737949</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1664894019.729097</v>
+        <v>1602632066.355258</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1213073670126183</v>
+        <v>0.125234762012514</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03188845894207896</v>
+        <v>0.02725352614179816</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1395410540.377878</v>
+        <v>1770558270.152371</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1364608751677626</v>
+        <v>0.1207395753847105</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05831950312569249</v>
+        <v>0.03643798428540291</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2082510120.65883</v>
+        <v>2709064179.301842</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1199883737609516</v>
+        <v>0.1031818201823925</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03167789762982216</v>
+        <v>0.03898452735035964</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3834140250.450063</v>
+        <v>3131303133.337444</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1001151704584416</v>
+        <v>0.09530778946588848</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0301507555469722</v>
+        <v>0.0381573054801479</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2957738742.362643</v>
+        <v>3003455579.260513</v>
       </c>
       <c r="F43" t="n">
-        <v>0.15414521419669</v>
+        <v>0.1942498399708091</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01869871598170916</v>
+        <v>0.01667582814257711</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1730455059.386797</v>
+        <v>1610877826.169621</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07758573416400029</v>
+        <v>0.06297420731677249</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03179739855088487</v>
+        <v>0.02502136633823472</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2064922482.403332</v>
+        <v>1917833734.771904</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1493536196435033</v>
+        <v>0.1505292559307846</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05171575382988937</v>
+        <v>0.05002255166246589</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4670738058.997592</v>
+        <v>5526964746.077476</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1606248991800133</v>
+        <v>0.1565571160521061</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04280847040081437</v>
+        <v>0.05501410826597056</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,13 +1746,13 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3589283644.22435</v>
+        <v>3677921345.966205</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1729489579052119</v>
+        <v>0.1629213781833294</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05183058643132564</v>
+        <v>0.03703439381306255</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3670510946.362694</v>
+        <v>3101763009.119342</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1101943910992559</v>
+        <v>0.09557176930215858</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03087981983463817</v>
+        <v>0.02578819855485405</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1938507736.32779</v>
+        <v>1389177831.190272</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1181567968644525</v>
+        <v>0.1886363850889511</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03253324099502809</v>
+        <v>0.03298173627942912</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2625080992.410928</v>
+        <v>2707935717.17888</v>
       </c>
       <c r="F50" t="n">
-        <v>0.117889614386208</v>
+        <v>0.1234123868137403</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04106717348641264</v>
+        <v>0.04450570366719957</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1304049272.609279</v>
+        <v>974198585.2402873</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1917300525671356</v>
+        <v>0.1937130719472044</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0402916751790811</v>
+        <v>0.04460994140991177</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3757337834.588616</v>
+        <v>4376458057.628681</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1371435070191422</v>
+        <v>0.1071407884712941</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04918397813565827</v>
+        <v>0.06026006297615222</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3017497107.812776</v>
+        <v>3252884664.561988</v>
       </c>
       <c r="F53" t="n">
-        <v>0.135939627453483</v>
+        <v>0.1857857144215164</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02907055215229777</v>
+        <v>0.0216514528290583</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4830021714.633432</v>
+        <v>3784046053.644299</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1045681065208764</v>
+        <v>0.1559789754379109</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04776028003079127</v>
+        <v>0.05039504135337564</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4382613976.899303</v>
+        <v>3054992856.735798</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2205812722698666</v>
+        <v>0.1702614878461401</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03160160506884566</v>
+        <v>0.02573430903628956</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1274391448.315974</v>
+        <v>1650812380.155158</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1165168796947909</v>
+        <v>0.1290930785500919</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03987453606059967</v>
+        <v>0.05461022607909694</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3300857588.815664</v>
+        <v>3614411552.051776</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1522162169000988</v>
+        <v>0.1602672989623396</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02633304345637555</v>
+        <v>0.02690987477499388</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1359181278.202519</v>
+        <v>1730795207.620544</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1859370870099361</v>
+        <v>0.1733543300689726</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03489779311298992</v>
+        <v>0.03958275074731692</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4317489996.141478</v>
+        <v>4565787602.215168</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1245298835021672</v>
+        <v>0.09530697928451977</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04653719126584895</v>
+        <v>0.03876520249954223</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2843357990.275179</v>
+        <v>3010413957.325852</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1906435714521852</v>
+        <v>0.205992055569054</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02713365039727515</v>
+        <v>0.03177807065767729</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3130022904.608233</v>
+        <v>2235667653.481899</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1791492871789475</v>
+        <v>0.149153032552912</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02059576412167819</v>
+        <v>0.02548014760802146</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1955141174.202749</v>
+        <v>1616718142.494759</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1428750506584994</v>
+        <v>0.1534933445422456</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04632943075599238</v>
+        <v>0.0328563279869561</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3794283995.318012</v>
+        <v>4502527524.470337</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1063763300281394</v>
+        <v>0.09531354824219541</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04160822488470074</v>
+        <v>0.04620857873270641</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4620130323.651787</v>
+        <v>5325711082.22153</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1842412977248052</v>
+        <v>0.1891912281025455</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03423436949815958</v>
+        <v>0.02901486448836761</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4476506203.182444</v>
+        <v>3743164548.990415</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1682298527826578</v>
+        <v>0.1336972807229709</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0319648036399716</v>
+        <v>0.02353602185848469</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5018707656.954128</v>
+        <v>5469730888.053864</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1062080684196583</v>
+        <v>0.1179035349925135</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0346300910411612</v>
+        <v>0.04163468423067144</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2912042801.771803</v>
+        <v>3321429122.986499</v>
       </c>
       <c r="F67" t="n">
-        <v>0.103038695499535</v>
+        <v>0.06802602181298317</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03383617467946644</v>
+        <v>0.0510227459852178</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5693506328.123655</v>
+        <v>4673530193.489062</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09713589680240074</v>
+        <v>0.1007392022198157</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05027186452289233</v>
+        <v>0.0390720643210082</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2433778584.695502</v>
+        <v>2044277619.497453</v>
       </c>
       <c r="F69" t="n">
-        <v>0.157247132668189</v>
+        <v>0.1163131774571715</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04287851107804692</v>
+        <v>0.05905981152275216</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2799774548.185352</v>
+        <v>2741446105.79233</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06699095245723667</v>
+        <v>0.08259333625148446</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03545272850260596</v>
+        <v>0.04281020321468414</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5118222737.276212</v>
+        <v>3657507717.985742</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1567104615643548</v>
+        <v>0.1790445332697536</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02918595754323873</v>
+        <v>0.02190515976050052</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2239276127.561935</v>
+        <v>1725855380.211333</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07078275370234671</v>
+        <v>0.09099460326733262</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0527265177614456</v>
+        <v>0.03961543419262786</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2401078795.396482</v>
+        <v>2172395138.358925</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08274694589483095</v>
+        <v>0.09776624947179095</v>
       </c>
       <c r="G73" t="n">
-        <v>0.043546912780666</v>
+        <v>0.03184998196241989</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2748640559.454731</v>
+        <v>2465742616.465595</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1787983608496387</v>
+        <v>0.1255683023855722</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02430746452242416</v>
+        <v>0.03111054761940309</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2281317796.720226</v>
+        <v>2491758824.618263</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1087115623033453</v>
+        <v>0.134851132212981</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03281768578728592</v>
+        <v>0.03624478876070904</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5036539934.722821</v>
+        <v>5150037979.598819</v>
       </c>
       <c r="F76" t="n">
-        <v>0.116322822742348</v>
+        <v>0.1029056978580263</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02759605269164841</v>
+        <v>0.02532712271417232</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1457651452.264652</v>
+        <v>2190425179.151787</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1519445817314927</v>
+        <v>0.1660348949986079</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02074558002179812</v>
+        <v>0.02448514715831177</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4559471789.434435</v>
+        <v>3504673550.068471</v>
       </c>
       <c r="F78" t="n">
-        <v>0.111603364530196</v>
+        <v>0.1106508906497467</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05389963456581933</v>
+        <v>0.04362104034800587</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1866632467.443771</v>
+        <v>1593850026.378042</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1204639766009133</v>
+        <v>0.1706259110273139</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02778208780041946</v>
+        <v>0.03261001300847845</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5000469071.783822</v>
+        <v>5540691628.973249</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09674615626306012</v>
+        <v>0.08631852232640817</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03233431352463004</v>
+        <v>0.0379499215744121</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3898723296.22167</v>
+        <v>4249506558.035588</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09156701816866537</v>
+        <v>0.1182499540682495</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02316356888717454</v>
+        <v>0.03278787844393772</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3678509013.307132</v>
+        <v>3907923209.496009</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1412825754090474</v>
+        <v>0.2167456958399709</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02130013929922024</v>
+        <v>0.02955970774341139</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1517688656.786634</v>
+        <v>2181593242.129514</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1242829876389498</v>
+        <v>0.1148848149017787</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03995075767172103</v>
+        <v>0.03002531352793101</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1717662568.73206</v>
+        <v>1971527740.662646</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07594065792339343</v>
+        <v>0.09545199718804342</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04421328150681005</v>
+        <v>0.04249835189590789</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3101297104.088466</v>
+        <v>3312502424.374371</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1677568991939077</v>
+        <v>0.1673681704231693</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03939508702986543</v>
+        <v>0.04953115053617772</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2522926387.534537</v>
+        <v>2229199155.583818</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1451646400122262</v>
+        <v>0.1103147147100907</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02305423656346161</v>
+        <v>0.01712936121852246</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1290845781.541262</v>
+        <v>1263844985.678706</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1219782919564534</v>
+        <v>0.1331057799423624</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03452107517873057</v>
+        <v>0.03514939328329558</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3317963576.96443</v>
+        <v>3469292688.85254</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1590901003304303</v>
+        <v>0.1564109347041026</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03315494242731314</v>
+        <v>0.03757657480731658</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2172642453.349535</v>
+        <v>2270183104.627521</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1282178336887816</v>
+        <v>0.1552820996279082</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0291343151236368</v>
+        <v>0.03152291965388239</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1503994205.292555</v>
+        <v>2050046910.836979</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1019832737099997</v>
+        <v>0.1159722199846277</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05588739247270409</v>
+        <v>0.04869920497385712</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1775094337.570948</v>
+        <v>1516352673.26926</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1699829961886766</v>
+        <v>0.1620949258844726</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04195548631375262</v>
+        <v>0.04051092914820921</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2394673594.722696</v>
+        <v>2849464646.117578</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09750516675659496</v>
+        <v>0.1103239250685158</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04542290093280964</v>
+        <v>0.0477110177385399</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3360465816.500371</v>
+        <v>3180304926.285355</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1230682323969139</v>
+        <v>0.1254178934236</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04283479094997216</v>
+        <v>0.03980528788514288</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2468798098.737729</v>
+        <v>1620511452.536289</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1558316196489936</v>
+        <v>0.1273093205608584</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03388595302626604</v>
+        <v>0.02618438563683758</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>1984172465.26826</v>
+        <v>2901170832.188469</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1133570961689943</v>
+        <v>0.09757877232695257</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05116275039135652</v>
+        <v>0.03513657206925468</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1929541206.303555</v>
+        <v>1827521113.700473</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1123595256723562</v>
+        <v>0.1136390326125568</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04387722445568753</v>
+        <v>0.03740997856947724</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5314573122.379237</v>
+        <v>3241153338.318768</v>
       </c>
       <c r="F97" t="n">
-        <v>0.145080812167433</v>
+        <v>0.1334043358667289</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02054861477494677</v>
+        <v>0.02189068429938685</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3882866060.676838</v>
+        <v>3441085562.048696</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1241730881331568</v>
+        <v>0.1096509690252817</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03243481173864249</v>
+        <v>0.02879016350249187</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3289413257.461873</v>
+        <v>2757686302.058924</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1407722001522276</v>
+        <v>0.1243697147057917</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03377703716955562</v>
+        <v>0.03137942931340804</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4115527288.952353</v>
+        <v>2909401490.846225</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1588584129040574</v>
+        <v>0.1571695075790803</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02486693176707751</v>
+        <v>0.02784073095739809</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2186326755.184461</v>
+        <v>3206589991.654126</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1800959363709075</v>
+        <v>0.1955450756812016</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05497493826384237</v>
+        <v>0.05264313886277399</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_31.xlsx
+++ b/output/fit_clients/fit_round_31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1837086943.164388</v>
+        <v>2477600661.208346</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07155785771021268</v>
+        <v>0.0892399310255191</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02982261188574376</v>
+        <v>0.04296665186834821</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2388682944.847502</v>
+        <v>1940367673.443557</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1468081041613172</v>
+        <v>0.1483702539410026</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04765031584542932</v>
+        <v>0.04309604645406198</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3655179866.362811</v>
+        <v>3420186707.528533</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1165789389856107</v>
+        <v>0.1506566988771386</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02327144637266932</v>
+        <v>0.03617065794033517</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22</v>
+      </c>
+      <c r="J4" t="n">
+        <v>30</v>
+      </c>
+      <c r="K4" t="n">
+        <v>150.2228232140499</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3335715708.118171</v>
+        <v>2845447838.289589</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09487933017228992</v>
+        <v>0.1027421156367813</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04061683867963091</v>
+        <v>0.04210339035859672</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>30</v>
+      </c>
+      <c r="K5" t="n">
+        <v>108.0657471923492</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2002128809.739758</v>
+        <v>2693500980.710564</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1383105720589228</v>
+        <v>0.1479475222127991</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04437175598011258</v>
+        <v>0.05020077121976459</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2579627954.039649</v>
+        <v>2992781943.514004</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06363022003590826</v>
+        <v>0.06708268215757028</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04368107858396487</v>
+        <v>0.03320554645225568</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2669823573.794452</v>
+        <v>2590662538.196952</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1927789384741869</v>
+        <v>0.1518622143706</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03036335835160427</v>
+        <v>0.02870578531011265</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>29</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2077863100.58474</v>
+        <v>1839630783.338066</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1663632100966868</v>
+        <v>0.1775350635547325</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03646384908525116</v>
+        <v>0.0303544353137319</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3726195968.757432</v>
+        <v>3779880240.999432</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1666101389628684</v>
+        <v>0.1991954240894712</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04202661527016612</v>
+        <v>0.03373396380848617</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>29</v>
+      </c>
+      <c r="J10" t="n">
+        <v>31</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,16 +820,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3434753070.639421</v>
+        <v>4267254018.086392</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1480237167272694</v>
+        <v>0.1544825792345441</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03370798118517231</v>
+        <v>0.04670268619869869</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>14</v>
+      </c>
+      <c r="J11" t="n">
+        <v>31</v>
+      </c>
+      <c r="K11" t="n">
+        <v>230.4147013986745</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3301041595.077202</v>
+        <v>2550127429.859468</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1971949035275835</v>
+        <v>0.1458506579360431</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04664039120309948</v>
+        <v>0.04823950204889407</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4124571319.136127</v>
+        <v>3917079966.844514</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08667419669936792</v>
+        <v>0.09851889761820327</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02065715927538828</v>
+        <v>0.02620152735011153</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>15</v>
+      </c>
+      <c r="J13" t="n">
+        <v>30</v>
+      </c>
+      <c r="K13" t="n">
+        <v>193.5286786046778</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2376455103.604321</v>
+        <v>2593930238.290415</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1739508816333055</v>
+        <v>0.140844603906068</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03615435968989739</v>
+        <v>0.03144941819769489</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>24</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1326455556.865029</v>
+        <v>1530822110.384326</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07065022768578699</v>
+        <v>0.08615504701749145</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03134471102459675</v>
+        <v>0.04336036590557245</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2664703251.62022</v>
+        <v>2611051457.945628</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0917741714739837</v>
+        <v>0.08405481786149707</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03180146754677512</v>
+        <v>0.03753643631049983</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5171679286.807034</v>
+        <v>4546798510.645477</v>
       </c>
       <c r="F17" t="n">
-        <v>0.106356692281225</v>
+        <v>0.1682985361013106</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05313167548196852</v>
+        <v>0.04853115586205104</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15</v>
+      </c>
+      <c r="J17" t="n">
+        <v>30</v>
+      </c>
+      <c r="K17" t="n">
+        <v>197.5481147603467</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3490418692.444427</v>
+        <v>2802955344.579373</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1299694201623788</v>
+        <v>0.1807927448677503</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03393945664714452</v>
+        <v>0.02121013461779742</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>24</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1243191899.680547</v>
+        <v>1139750829.980123</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1901706249118036</v>
+        <v>0.1484874743721321</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02598245921206964</v>
+        <v>0.0202108749459808</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2787761248.248673</v>
+        <v>2765362095.114996</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1531575656153026</v>
+        <v>0.1520314773607122</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02157726391231345</v>
+        <v>0.02670817516601398</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2260701409.28592</v>
+        <v>2626014830.861897</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07900677944963534</v>
+        <v>0.06164741301108939</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0294821445878339</v>
+        <v>0.04143692698600968</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3376298175.588056</v>
+        <v>3368165056.413601</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09064674529176565</v>
+        <v>0.1051778211708734</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04707700535885163</v>
+        <v>0.05561375282343653</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>28</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1128439433.09661</v>
+        <v>1477961170.998679</v>
       </c>
       <c r="F23" t="n">
-        <v>0.116132992261133</v>
+        <v>0.1530742617165867</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04623103223015222</v>
+        <v>0.04233041597947049</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1281,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2547072435.3377</v>
+        <v>3014062827.558297</v>
       </c>
       <c r="F24" t="n">
-        <v>0.11598380627036</v>
+        <v>0.1208220684445826</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02719149270794413</v>
+        <v>0.02358702485317607</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>30</v>
+      </c>
+      <c r="K24" t="n">
+        <v>106.9172259287153</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1146328501.422314</v>
+        <v>1210759044.008726</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1191363601341049</v>
+        <v>0.119470830356792</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02440409785867999</v>
+        <v>0.02530779371800105</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1353,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1043471273.492007</v>
+        <v>1188058226.82732</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09746049128979141</v>
+        <v>0.08693275020273691</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02830605027181409</v>
+        <v>0.0293594897381607</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3228887490.886838</v>
+        <v>4438047549.817151</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1133352844954557</v>
+        <v>0.152819621275728</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01971902473953377</v>
+        <v>0.01642286833645267</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12</v>
+      </c>
+      <c r="J27" t="n">
+        <v>30</v>
+      </c>
+      <c r="K27" t="n">
+        <v>171.376488822677</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1425,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2742371733.729818</v>
+        <v>2779925250.671788</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1460827149754254</v>
+        <v>0.1034353251606499</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03204910955740971</v>
+        <v>0.03314981996434008</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>28</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4172309492.802173</v>
+        <v>3809412816.307018</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09547831098635222</v>
+        <v>0.1495316883745107</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03603567993429022</v>
+        <v>0.03825647383787489</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>29</v>
+      </c>
+      <c r="J29" t="n">
+        <v>30</v>
+      </c>
+      <c r="K29" t="n">
+        <v>208.9419325782604</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1479744880.261086</v>
+        <v>2075587533.935439</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09714931594585886</v>
+        <v>0.1109763637685292</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02806081759894878</v>
+        <v>0.02498952194855724</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1195769725.423505</v>
+        <v>1432987183.753956</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08011820267567424</v>
+        <v>0.1120269237947608</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03967318140100339</v>
+        <v>0.04374212774005672</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1162940648.121919</v>
+        <v>1831333118.930148</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1081242696836141</v>
+        <v>0.1120453128589314</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02672148786303982</v>
+        <v>0.03839251430490435</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3075178441.478272</v>
+        <v>1894985843.956618</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1934694519276901</v>
+        <v>0.138219396928507</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0592955789910212</v>
+        <v>0.06027808414177648</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1115902821.088553</v>
+        <v>1175978647.450922</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07976093266585384</v>
+        <v>0.07759659118594892</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01778687983571195</v>
+        <v>0.02246877341443831</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1672,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1199328785.259909</v>
+        <v>1313754701.197422</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09974125686944754</v>
+        <v>0.07997474536990209</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03294630017305653</v>
+        <v>0.02971616057546132</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2026470749.806767</v>
+        <v>2138484110.61158</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1338588120947154</v>
+        <v>0.1130440195836412</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02843537734106452</v>
+        <v>0.02014969267704046</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2568334992.197065</v>
+        <v>2221184692.483944</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1060791628503802</v>
+        <v>0.09893680534147654</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03707662286685609</v>
+        <v>0.03005622317780732</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1777,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1678343784.880758</v>
+        <v>1870475010.676227</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1077732880533371</v>
+        <v>0.08680111570369935</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03511764020737949</v>
+        <v>0.03614562101068039</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1812,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1602632066.355258</v>
+        <v>1380237410.434198</v>
       </c>
       <c r="F39" t="n">
-        <v>0.125234762012514</v>
+        <v>0.1716321531355301</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02725352614179816</v>
+        <v>0.02232037194236496</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1847,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1770558270.152371</v>
+        <v>1426423804.130645</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1207395753847105</v>
+        <v>0.1563257421033847</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03643798428540291</v>
+        <v>0.05265613499491745</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2709064179.301842</v>
+        <v>2480686689.735882</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1031818201823925</v>
+        <v>0.1148945366809437</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03898452735035964</v>
+        <v>0.04246387886804934</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3131303133.337444</v>
+        <v>3465390274.34389</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09530778946588848</v>
+        <v>0.09878196792553665</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0381573054801479</v>
+        <v>0.03337603030126399</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>10</v>
+      </c>
+      <c r="J42" t="n">
+        <v>31</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3003455579.260513</v>
+        <v>2691339147.18809</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1942498399708091</v>
+        <v>0.1765887843132273</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01667582814257711</v>
+        <v>0.01765797948687472</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1610877826.169621</v>
+        <v>1798488949.237967</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06297420731677249</v>
+        <v>0.06589434816066322</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02502136633823472</v>
+        <v>0.02293776203000905</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1917833734.771904</v>
+        <v>2473065263.074326</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1505292559307846</v>
+        <v>0.1222516265883545</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05002255166246589</v>
+        <v>0.04187566373613679</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5526964746.077476</v>
+        <v>5726593300.718246</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1565571160521061</v>
+        <v>0.129723883143348</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05501410826597056</v>
+        <v>0.05739794171155899</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>18</v>
+      </c>
+      <c r="J46" t="n">
+        <v>31</v>
+      </c>
+      <c r="K46" t="n">
+        <v>214.771938792775</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2088,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3677921345.966205</v>
+        <v>5113676732.106405</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1629213781833294</v>
+        <v>0.1547818226163804</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03703439381306255</v>
+        <v>0.0570336716056039</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>13</v>
+      </c>
+      <c r="J47" t="n">
+        <v>30</v>
+      </c>
+      <c r="K47" t="n">
+        <v>186.3812720596128</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2125,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3101763009.119342</v>
+        <v>3170172410.150763</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09557176930215858</v>
+        <v>0.07191936582008576</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02578819855485405</v>
+        <v>0.0336820619331725</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>10</v>
+      </c>
+      <c r="J48" t="n">
+        <v>29</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2166,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1389177831.190272</v>
+        <v>1628077784.544625</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1886363850889511</v>
+        <v>0.1333151928381619</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03298173627942912</v>
+        <v>0.04416892214249901</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2195,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2707935717.17888</v>
+        <v>4098409032.269774</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1234123868137403</v>
+        <v>0.1449608787720111</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04450570366719957</v>
+        <v>0.04615536002693377</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>10</v>
+      </c>
+      <c r="J50" t="n">
+        <v>31</v>
+      </c>
+      <c r="K50" t="n">
+        <v>212.9374167395929</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2232,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>974198585.2402873</v>
+        <v>1412832322.006267</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1937130719472044</v>
+        <v>0.1704683299552078</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04460994140991177</v>
+        <v>0.050078159875228</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2267,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4376458057.628681</v>
+        <v>3863341579.776996</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1071407884712941</v>
+        <v>0.09185112205092591</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06026006297615222</v>
+        <v>0.05766007323716812</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>23</v>
+      </c>
+      <c r="J52" t="n">
+        <v>31</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3252884664.561988</v>
+        <v>3633818184.764497</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1857857144215164</v>
+        <v>0.1797627720331902</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0216514528290583</v>
+        <v>0.02770452569361841</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4</v>
+      </c>
+      <c r="J53" t="n">
+        <v>31</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2337,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3784046053.644299</v>
+        <v>3760087193.078672</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1559789754379109</v>
+        <v>0.1654884972597919</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05039504135337564</v>
+        <v>0.04980434417272604</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>14</v>
+      </c>
+      <c r="J54" t="n">
+        <v>30</v>
+      </c>
+      <c r="K54" t="n">
+        <v>176.8770594245784</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2374,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3054992856.735798</v>
+        <v>3374302160.782511</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1702614878461401</v>
+        <v>0.1567004192569588</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02573430903628956</v>
+        <v>0.03153559487091346</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>14</v>
+      </c>
+      <c r="J55" t="n">
+        <v>31</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2415,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1650812380.155158</v>
+        <v>1641394220.410685</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1290930785500919</v>
+        <v>0.1164241813413974</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05461022607909694</v>
+        <v>0.03714163007376969</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2444,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3614411552.051776</v>
+        <v>4001456926.464141</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1602672989623396</v>
+        <v>0.1439276298446703</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02690987477499388</v>
+        <v>0.01682152404019095</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>11</v>
+      </c>
+      <c r="J57" t="n">
+        <v>31</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1730795207.620544</v>
+        <v>1875400182.86939</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1733543300689726</v>
+        <v>0.1706676430873094</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03958275074731692</v>
+        <v>0.03387494702477854</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4565787602.215168</v>
+        <v>5012733953.272969</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09530697928451977</v>
+        <v>0.1018766048313773</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03876520249954223</v>
+        <v>0.04652705646776633</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>14</v>
+      </c>
+      <c r="J59" t="n">
+        <v>31</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,16 +2555,25 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3010413957.325852</v>
+        <v>3585618631.126686</v>
       </c>
       <c r="F60" t="n">
-        <v>0.205992055569054</v>
+        <v>0.1559132535008077</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03177807065767729</v>
+        <v>0.03086915488899416</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>30</v>
+      </c>
+      <c r="K60" t="n">
+        <v>153.7402207016136</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2592,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2235667653.481899</v>
+        <v>2500602128.154769</v>
       </c>
       <c r="F61" t="n">
-        <v>0.149153032552912</v>
+        <v>0.1394214651528862</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02548014760802146</v>
+        <v>0.03091170932927578</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1616718142.494759</v>
+        <v>1289960128.875772</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1534933445422456</v>
+        <v>0.134637653849928</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0328563279869561</v>
+        <v>0.0383363020618751</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2656,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4502527524.470337</v>
+        <v>4470745741.851916</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09531354824219541</v>
+        <v>0.08147135368968854</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04620857873270641</v>
+        <v>0.03734021440250329</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>15</v>
+      </c>
+      <c r="J63" t="n">
+        <v>30</v>
+      </c>
+      <c r="K63" t="n">
+        <v>196.0321328028279</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2693,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5325711082.22153</v>
+        <v>3582225071.39015</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1891912281025455</v>
+        <v>0.1366050583898825</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02901486448836761</v>
+        <v>0.03114945077487315</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>15</v>
+      </c>
+      <c r="J64" t="n">
+        <v>31</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2728,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3743164548.990415</v>
+        <v>5917611022.289234</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1336972807229709</v>
+        <v>0.1192555126764887</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02353602185848469</v>
+        <v>0.02948661844470733</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>25</v>
+      </c>
+      <c r="J65" t="n">
+        <v>31</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5469730888.053864</v>
+        <v>4993375910.599439</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1179035349925135</v>
+        <v>0.1571087781141551</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04163468423067144</v>
+        <v>0.03420215167574631</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>15</v>
+      </c>
+      <c r="J66" t="n">
+        <v>31</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3321429122.986499</v>
+        <v>2595873364.446906</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06802602181298317</v>
+        <v>0.09542181545392471</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0510227459852178</v>
+        <v>0.03438921306405601</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4673530193.489062</v>
+        <v>4439595611.708201</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1007392022198157</v>
+        <v>0.1590164596916993</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0390720643210082</v>
+        <v>0.04096731906722256</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>15</v>
+      </c>
+      <c r="J68" t="n">
+        <v>31</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2044277619.497453</v>
+        <v>2472968136.266456</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1163131774571715</v>
+        <v>0.1337622112944781</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05905981152275216</v>
+        <v>0.04243967543832797</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2741446105.79233</v>
+        <v>2723167806.17467</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08259333625148446</v>
+        <v>0.1023981812521086</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04281020321468414</v>
+        <v>0.04259882860516719</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>27</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2944,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3657507717.985742</v>
+        <v>5015412912.461582</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1790445332697536</v>
+        <v>0.1751207231293191</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02190515976050052</v>
+        <v>0.02279793405964678</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>25</v>
+      </c>
+      <c r="J71" t="n">
+        <v>31</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.2506977005129</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1725855380.211333</v>
+        <v>1732785859.010867</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09099460326733262</v>
+        <v>0.09517332537881322</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03961543419262786</v>
+        <v>0.0402363725512749</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3010,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2172395138.358925</v>
+        <v>2185333175.188094</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09776624947179095</v>
+        <v>0.08135420609913951</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03184998196241989</v>
+        <v>0.03319751192917661</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>30</v>
+      </c>
+      <c r="K73" t="n">
+        <v>64.1493321535965</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2465742616.465595</v>
+        <v>2784733191.245925</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1255683023855722</v>
+        <v>0.1481159226507878</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03111054761940309</v>
+        <v>0.03479602913922239</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>9</v>
+      </c>
+      <c r="J74" t="n">
+        <v>29</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2491758824.618263</v>
+        <v>2128516716.082156</v>
       </c>
       <c r="F75" t="n">
-        <v>0.134851132212981</v>
+        <v>0.1608817594700719</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03624478876070904</v>
+        <v>0.02634474372808873</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5150037979.598819</v>
+        <v>3778108451.357123</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1029056978580263</v>
+        <v>0.1210300040332747</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02532712271417232</v>
+        <v>0.02812466835961737</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>14</v>
+      </c>
+      <c r="J76" t="n">
+        <v>31</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2190425179.151787</v>
+        <v>1513140892.639106</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1660348949986079</v>
+        <v>0.14068608065764</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02448514715831177</v>
+        <v>0.0278017828495624</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3504673550.068471</v>
+        <v>4609277619.568924</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1106508906497467</v>
+        <v>0.1283795722188406</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04362104034800587</v>
+        <v>0.05123526039043869</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>12</v>
+      </c>
+      <c r="J78" t="n">
+        <v>31</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1593850026.378042</v>
+        <v>1507560114.271717</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1706259110273139</v>
+        <v>0.1134767781506388</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03261001300847845</v>
+        <v>0.03148841951976993</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5540691628.973249</v>
+        <v>5373545379.518367</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08631852232640817</v>
+        <v>0.1103680421524446</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0379499215744121</v>
+        <v>0.02585452913613892</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>15</v>
+      </c>
+      <c r="J80" t="n">
+        <v>30</v>
+      </c>
+      <c r="K80" t="n">
+        <v>168.3944441689781</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4249506558.035588</v>
+        <v>4799261572.776468</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1182499540682495</v>
+        <v>0.1266642221122079</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03278787844393772</v>
+        <v>0.02317943455654804</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>13</v>
+      </c>
+      <c r="J81" t="n">
+        <v>30</v>
+      </c>
+      <c r="K81" t="n">
+        <v>170.8153688389853</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3337,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3907923209.496009</v>
+        <v>3490988518.105279</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2167456958399709</v>
+        <v>0.1451683132580087</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02955970774341139</v>
+        <v>0.0221491031628586</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>16</v>
+      </c>
+      <c r="J82" t="n">
+        <v>30</v>
+      </c>
+      <c r="K82" t="n">
+        <v>155.3488721344305</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2181593242.129514</v>
+        <v>1929393561.055202</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1148848149017787</v>
+        <v>0.1339369054628879</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03002531352793101</v>
+        <v>0.0438877612108621</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1971527740.662646</v>
+        <v>2400228376.364136</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09545199718804342</v>
+        <v>0.1128051586594662</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04249835189590789</v>
+        <v>0.04378099601404141</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3312502424.374371</v>
+        <v>3503943836.820944</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1673681704231693</v>
+        <v>0.1221497397580182</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04953115053617772</v>
+        <v>0.05271566320250267</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>5</v>
+      </c>
+      <c r="J85" t="n">
+        <v>31</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2229199155.583818</v>
+        <v>2049923516.547895</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1103147147100907</v>
+        <v>0.124569426421664</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01712936121852246</v>
+        <v>0.02572698741867653</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1263844985.678706</v>
+        <v>1176188101.316067</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1331057799423624</v>
+        <v>0.1683361120176737</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03514939328329558</v>
+        <v>0.02856486757565812</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3469292688.85254</v>
+        <v>2599691402.051471</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1564109347041026</v>
+        <v>0.1204801585761005</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03757657480731658</v>
+        <v>0.02729624768990722</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>25</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2270183104.627521</v>
+        <v>2162627950.701871</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1552820996279082</v>
+        <v>0.1331168166313892</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03152291965388239</v>
+        <v>0.03317027338031416</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>17</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2050046910.836979</v>
+        <v>2038219253.732155</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1159722199846277</v>
+        <v>0.1361418732676634</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04869920497385712</v>
+        <v>0.04079724021434705</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1516352673.26926</v>
+        <v>2093272345.164772</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1620949258844726</v>
+        <v>0.1886560948194016</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04051092914820921</v>
+        <v>0.06206493055351382</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2849464646.117578</v>
+        <v>2392157560.573141</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1103239250685158</v>
+        <v>0.07187581549844065</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0477110177385399</v>
+        <v>0.03666553379985727</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3180304926.285355</v>
+        <v>3602114201.068828</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1254178934236</v>
+        <v>0.09281693902019177</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03980528788514288</v>
+        <v>0.04643002183701908</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>13</v>
+      </c>
+      <c r="J93" t="n">
+        <v>31</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1620511452.536289</v>
+        <v>2528849915.569515</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1273093205608584</v>
+        <v>0.1509885343586901</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02618438563683758</v>
+        <v>0.03958488840722989</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2901170832.188469</v>
+        <v>2924991085.586874</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09757877232695257</v>
+        <v>0.1132050197412246</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03513657206925468</v>
+        <v>0.04095241526333188</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1827521113.700473</v>
+        <v>1542864574.048616</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1136390326125568</v>
+        <v>0.1011319079200192</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03740997856947724</v>
+        <v>0.03217897853351351</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3241153338.318768</v>
+        <v>4435706798.257835</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1334043358667289</v>
+        <v>0.1114488265889509</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02189068429938685</v>
+        <v>0.02191960661868481</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>15</v>
+      </c>
+      <c r="J97" t="n">
+        <v>31</v>
+      </c>
+      <c r="K97" t="n">
+        <v>209.4015378117069</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3441085562.048696</v>
+        <v>2481943860.40975</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1096509690252817</v>
+        <v>0.09870717496685298</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02879016350249187</v>
+        <v>0.02575085698370235</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>7</v>
+      </c>
+      <c r="J98" t="n">
+        <v>26</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2757686302.058924</v>
+        <v>3311305201.428344</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1243697147057917</v>
+        <v>0.09750720106001635</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03137942931340804</v>
+        <v>0.0303782991187422</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2909401490.846225</v>
+        <v>3241151667.468085</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1571695075790803</v>
+        <v>0.1517451899315989</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02784073095739809</v>
+        <v>0.02359068745777738</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>14</v>
+      </c>
+      <c r="J100" t="n">
+        <v>29</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3206589991.654126</v>
+        <v>2465493068.492916</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1955450756812016</v>
+        <v>0.1695936970626002</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05264313886277399</v>
+        <v>0.04921330298849563</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
